--- a/xlsx/全球化_intext.xlsx
+++ b/xlsx/全球化_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="448">
   <si>
     <t>全球化</t>
   </si>
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%A7%80</t>
   </si>
   <si>
-    <t>世界觀</t>
+    <t>世界观</t>
   </si>
   <si>
     <t>政策_政策_外交政策_全球化</t>
@@ -47,43 +47,43 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%8B%E8%BC%B8</t>
   </si>
   <si>
-    <t>運輸</t>
+    <t>运输</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E4%BF%A1</t>
   </si>
   <si>
-    <t>電信</t>
+    <t>电信</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%A0%B1</t>
   </si>
   <si>
-    <t>電報</t>
+    <t>电报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%92%E8%81%AF%E7%B6%B2</t>
   </si>
   <si>
-    <t>互聯網</t>
+    <t>互联网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%B8%E8%A1%93%E7%95%8C</t>
   </si>
   <si>
-    <t>學術界</t>
+    <t>学术界</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%9C%83</t>
   </si>
   <si>
-    <t>工會</t>
+    <t>工会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%82%B3%E5%AA%92</t>
   </si>
   <si>
-    <t>傳媒</t>
+    <t>传媒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E8%B4%B8%E6%98%93</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8A%95%E8%B3%87</t>
   </si>
   <si>
-    <t>投資</t>
+    <t>投资</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%96%86%E7%95%8C</t>
@@ -119,25 +119,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E8%B2%BF%E6%98%93%E5%B9%B4%E8%A1%A8</t>
   </si>
   <si>
-    <t>國際貿易年表</t>
+    <t>国际贸易年表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%B2%E7%B6%A2</t>
   </si>
   <si>
-    <t>絲綢</t>
+    <t>丝绸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8C%B6%E8%91%89</t>
   </si>
   <si>
-    <t>茶葉</t>
+    <t>茶叶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%B2%E8%B7%AF</t>
   </si>
   <si>
-    <t>絲路</t>
+    <t>丝路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E6%96%AF%E6%9B%BC%E5%B8%9D%E5%9B%BD</t>
@@ -149,31 +149,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86%E5%A4%A7%E7%99%BC%E7%8F%BE</t>
   </si>
   <si>
-    <t>地理大發現</t>
+    <t>地理大发现</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>工業革命</t>
+    <t>工业革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A8%99%E6%BA%96%E5%8C%96</t>
   </si>
   <si>
-    <t>標準化</t>
+    <t>标准化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%B8%E6%B0%A3%E8%88%B9</t>
   </si>
   <si>
-    <t>蒸氣船</t>
+    <t>蒸气船</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%90%B5%E8%B7%AF</t>
   </si>
   <si>
-    <t>鐵路</t>
+    <t>铁路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%9D%E5%9B%BD%E4%B8%BB%E4%B9%89</t>
@@ -191,7 +191,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2%E6%AE%96%E6%B0%91</t>
   </si>
   <si>
-    <t>亞洲殖民</t>
+    <t>亚洲殖民</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/shipping_containers</t>
@@ -209,25 +209,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E7%A8%85%E6%9A%A8%E8%B2%BF%E6%98%93%E7%B8%BD%E5%8D%94%E5%AE%9A</t>
   </si>
   <si>
-    <t>關稅暨貿易總協定</t>
+    <t>关税暨贸易总协定</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%B2%BF%E6%98%93%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>世界貿易組織</t>
+    <t>世界贸易组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%9C%E5%93%88%E5%9B%9E%E5%90%88%E8%B2%BF%E6%98%93%E8%AB%87%E5%88%A4</t>
   </si>
   <si>
-    <t>杜哈回合貿易談判</t>
+    <t>杜哈回合贸易谈判</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E7%BE%8E%E8%87%AA%E7%94%B1%E8%B2%BF%E6%98%93%E5%8D%94%E5%AE%9A</t>
   </si>
   <si>
-    <t>韓美自由貿易協定</t>
+    <t>韩美自由贸易协定</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%88%E6%9D%83%E6%B3%95</t>
@@ -269,9 +269,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%92%E8%81%94%E7%BD%91</t>
   </si>
   <si>
-    <t>互联网</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E8%AF%9D</t>
   </si>
   <si>
@@ -317,9 +314,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%B4%B8%E6%98%93%E7%BB%84%E7%BB%87</t>
   </si>
   <si>
-    <t>世界贸易组织</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%B4%B8%E6%98%93</t>
   </si>
   <si>
@@ -347,7 +341,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%B9%B3%E8%B2%BF%E6%98%93</t>
   </si>
   <si>
-    <t>公平貿易</t>
+    <t>公平贸易</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AF%86%E4%BA%A7%E6%9D%83</t>
@@ -389,13 +383,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BF%E6%98%93</t>
   </si>
   <si>
-    <t>貿易</t>
+    <t>贸易</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E5%95%86%E7%9B%B4%E6%8E%A5%E6%8A%95%E8%B3%87</t>
   </si>
   <si>
-    <t>外商直接投資</t>
+    <t>外商直接投资</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/portfolio_investment</t>
@@ -419,19 +413,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82</t>
   </si>
   <si>
-    <t>比利時</t>
+    <t>比利时</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>愛爾蘭共和國</t>
+    <t>爱尔兰共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
+    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%9C%B0%E5%88%A9</t>
@@ -449,7 +443,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5</t>
   </si>
   <si>
-    <t>丹麥</t>
+    <t>丹麦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8</t>
@@ -479,9 +473,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
   </si>
   <si>
@@ -497,13 +488,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%BD%E5%9C%8B%E5%AE%B6%E6%8C%87%E6%95%B8</t>
   </si>
   <si>
-    <t>好國家指數</t>
+    <t>好国家指数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
   </si>
   <si>
-    <t>聯合國</t>
+    <t>联合国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E5%85%B0</t>
@@ -515,7 +506,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%A5%BF%E8%98%AD</t>
   </si>
   <si>
-    <t>新西蘭</t>
+    <t>新西兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
@@ -551,19 +542,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B3%B6</t>
   </si>
   <si>
-    <t>冰島</t>
+    <t>冰岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%81%AF%E5%90%88%E5%A4%A7%E5%85%AC%E5%9C%8B</t>
   </si>
   <si>
-    <t>阿拉伯聯合大公國</t>
+    <t>阿拉伯联合大公国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%88%A9</t>
@@ -593,7 +584,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%AD%E5%B7%9E</t>
   </si>
   <si>
-    <t>蘭州</t>
+    <t>兰州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/FamilyMart</t>
@@ -617,7 +608,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2%E5%9B%9B%E5%B0%8F%E9%BE%8D</t>
   </si>
   <si>
-    <t>亞洲四小龍</t>
+    <t>亚洲四小龙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E5%8C%96</t>
@@ -629,25 +620,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BE%9D%E8%B3%B4%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>依賴理論</t>
+    <t>依赖理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E7%B1%B3%E7%88%BE%C2%B7%E9%98%BF%E6%95%8F</t>
   </si>
   <si>
-    <t>薩米爾·阿敏</t>
+    <t>萨米尔·阿敏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%94%BF%E5%BA%9C%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>非政府組織</t>
+    <t>非政府组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%81%E6%A5%AD</t>
   </si>
   <si>
-    <t>企業</t>
+    <t>企业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E7%97%85</t>
@@ -665,7 +656,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E5%85%A8%E7%90%83%E5%8C%96</t>
   </si>
   <si>
-    <t>軍事全球化</t>
+    <t>军事全球化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B3%E7%A8%8E%E5%8F%8A%E8%B4%B8%E6%98%93%E6%80%BB%E5%8D%8F%E5%AE%9A</t>
@@ -689,7 +680,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AB%B6%E7%88%AD%E5%8A%9B</t>
   </si>
   <si>
-    <t>競爭力</t>
+    <t>竞争力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E5%85%A8%E7%90%83%E5%8C%96</t>
@@ -713,19 +704,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%BB%E8%BD%89%E5%AE%9A%E5%83%B9</t>
   </si>
   <si>
-    <t>移轉定價</t>
+    <t>移转定价</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E5%B8%83%E5%A4%A7%E4%BA%A4%E6%8F%9B</t>
   </si>
   <si>
-    <t>哥倫布大交換</t>
+    <t>哥伦布大交换</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%90%E6%A7%8B%E7%8F%BE%E5%AF%A6%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>結構現實主義</t>
+    <t>结构现实主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8C%97%E5%88%86%E6%AD%A7</t>
@@ -737,7 +728,7 @@
     <t>https://zh.wikipedia.org/wiki/2016%E5%B9%B4%E8%8B%B1%E5%9C%8B%E8%84%AB%E9%9B%A2%E6%AD%90%E7%9B%9F%E5%85%AC%E6%8A%95</t>
   </si>
   <si>
-    <t>2016年英國脫離歐盟公投</t>
+    <t>2016年英国脱离欧盟公投</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E4%B8%96%E7%95%8C%E7%A7%A9%E5%BA%8F</t>
@@ -773,7 +764,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%85%A8%E7%90%83%E5%8C%96</t>
   </si>
   <si>
-    <t>經濟全球化</t>
+    <t>经济全球化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%85%A8%E7%90%83%E5%8C%96</t>
@@ -785,37 +776,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%B2%BF%E6%98%93</t>
   </si>
   <si>
-    <t>自由貿易</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%A8%E5%9C%8B%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>跨國公司</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E8%B2%A8%E5%B9%A3%E5%9F%BA%E9%87%91%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>國際貨幣基金組織</t>
+    <t>国际货币基金组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>世界銀行</t>
+    <t>世界银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%88%91%E8%AD%A6%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>國際刑警組織</t>
+    <t>国际刑警组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%85%E9%81%8A</t>
   </si>
   <si>
-    <t>旅遊</t>
+    <t>旅游</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E4%B8%96%E7%95%8C%E4%B8%BB%E4%B9%89%E5%92%8C%E4%B8%96%E7%95%8C%E6%94%BF%E5%BA%9C%E4%B8%93%E9%A2%98</t>
@@ -833,7 +818,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E5%9C%8B%E5%AE%B6%E4%B8%BB%E7%BE%A9_(%E5%9C%8B%E9%9A%9B%E9%97%9C%E4%BF%82)</t>
   </si>
   <si>
-    <t>超國家主義 (國際關係)</t>
+    <t>超国家主义 (国际关系)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E4%B8%BB%E4%B9%89</t>
@@ -851,7 +836,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E9%96%93%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>政府間主義</t>
+    <t>政府间主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%B0%91%E6%97%8F%E4%B8%BB%E4%B9%89</t>
@@ -863,13 +848,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E5%92%8C%E5%B9%B3%E8%AB%96</t>
   </si>
   <si>
-    <t>民主和平論</t>
+    <t>民主和平论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%83%B9%E5%80%BC%E8%A7%80%E5%A4%96%E4%BA%A4</t>
   </si>
   <si>
-    <t>價值觀外交</t>
+    <t>价值观外交</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E5%B8%9D%E5%9B%BD</t>
@@ -893,7 +878,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>全球主義</t>
+    <t>全球主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E7%BB%84%E7%BB%87</t>
@@ -905,9 +890,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD</t>
   </si>
   <si>
-    <t>联合国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A2%E5%8D%81%E5%AD%97%E5%9B%BD%E9%99%85%E5%A7%94%E5%91%98%E4%BC%9A</t>
   </si>
   <si>
@@ -923,25 +905,16 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E9%93%B6%E8%A1%8C</t>
   </si>
   <si>
-    <t>世界银行</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E8%B4%A7%E5%B8%81%E5%9F%BA%E9%87%91%E7%BB%84%E7%BB%87</t>
   </si>
   <si>
-    <t>国际货币基金组织</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E5%88%91%E8%AD%A6%E7%BB%84%E7%BB%87</t>
   </si>
   <si>
-    <t>国际刑警组织</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%8C%96%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>國際標準化組織</t>
+    <t>国际标准化组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E5%8D%81%E5%9B%BD%E9%9B%86%E5%9B%A2</t>
@@ -977,7 +950,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%8E%A5%E8%AD%B0%E6%9C%83</t>
   </si>
   <si>
-    <t>突厥議會</t>
+    <t>突厥议会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%B8%E8%AE%BE%E4%BB%B2%E8%A3%81%E6%B3%95%E9%99%A2</t>
@@ -1025,7 +998,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E5%9F%94%E5%AF%A8%E6%B3%95%E9%99%A2%E7%89%B9%E5%88%A5%E6%B3%95%E5%BA%AD</t>
   </si>
   <si>
-    <t>柬埔寨法院特別法庭</t>
+    <t>柬埔寨法院特别法庭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%8B%89%E5%88%A9%E6%98%82%E7%89%B9%E5%88%AB%E6%B3%95%E5%BA%AD</t>
@@ -1097,7 +1070,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E%E5%9C%88%E5%9C%8B%E9%9A%9B%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>法語圈國際組織</t>
+    <t>法语圈国际组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%85%AC%E7%BA%A6%E7%BB%84%E7%BB%87</t>
@@ -1115,7 +1088,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>歐洲委員會</t>
+    <t>欧洲委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E8%81%94%E7%9B%9F</t>
@@ -1169,7 +1142,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%BE%8E%E6%B4%B2%E7%B5%B1%E5%90%88%E9%AB%94</t>
   </si>
   <si>
-    <t>中美洲統合體</t>
+    <t>中美洲统合体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E7%BE%8E%E6%B4%B2%E5%9B%BD%E5%AE%B6%E8%81%94%E7%9B%9F</t>
@@ -1187,13 +1160,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E7%AB%8B%E5%9C%8B%E5%AE%B6%E8%81%AF%E5%90%88%E9%AB%94</t>
   </si>
   <si>
-    <t>獨立國家聯合體</t>
+    <t>独立国家联合体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%96%B9%E5%85%B1%E5%90%8C%E5%B8%82%E5%A0%B4</t>
   </si>
   <si>
-    <t>南方共同市場</t>
+    <t>南方共同市场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%B4%B2%E5%9F%BA%E7%A1%80%E8%AE%BE%E6%96%BD%E6%8A%95%E8%B5%84%E9%93%B6%E8%A1%8C</t>
@@ -1241,7 +1214,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E8%81%AF%E7%9B%9F%E5%9F%BA%E6%9C%AC%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>歐洲聯盟基本條約</t>
+    <t>欧洲联盟基本条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E7%9B%9F%E6%B3%95%E5%BE%8B</t>
@@ -1253,7 +1226,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E%E5%8D%94%E8%AD%B0</t>
   </si>
   <si>
-    <t>巴黎協議</t>
+    <t>巴黎协议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E8%81%94%E7%9B%9F</t>
@@ -1277,7 +1250,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%9D%B1%E4%BA%9E%E5%85%B1%E6%A6%AE%E5%9C%88</t>
   </si>
   <si>
-    <t>大東亞共榮圈</t>
+    <t>大东亚共荣圈</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E4%BA%92%E5%8A%A9%E5%A7%94%E5%91%98%E4%BC%9A</t>
@@ -1313,19 +1286,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E7%BE%85%E5%B7%B4%E5%90%88%E7%9C%BE%E5%9C%8B</t>
   </si>
   <si>
-    <t>歐羅巴合眾國</t>
+    <t>欧罗巴合众国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%9E%E5%85%B1%E5%90%8C%E9%AB%94</t>
   </si>
   <si>
-    <t>東亞共同體</t>
+    <t>东亚共同体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E8%81%AF%E9%82%A6</t>
   </si>
   <si>
-    <t>中華聯邦</t>
+    <t>中华联邦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E7%BA%A2%E5%8D%81%E5%AD%97%E4%B8%8E%E7%BA%A2%E6%96%B0%E6%9C%88%E8%BF%90%E5%8A%A8</t>
@@ -1367,7 +1340,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1379,13 +1352,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E6%AD%B7%E5%8F%B2%E8%BE%AD%E5%85%B8</t>
   </si>
   <si>
-    <t>瑞士歷史辭典</t>
+    <t>瑞士历史辞典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -2974,7 +2947,7 @@
         <v>83</v>
       </c>
       <c r="F43" t="s">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="G43" t="n">
         <v>4</v>
@@ -3000,10 +2973,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>84</v>
+      </c>
+      <c r="F44" t="s">
         <v>85</v>
-      </c>
-      <c r="F44" t="s">
-        <v>86</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -3029,10 +3002,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>86</v>
+      </c>
+      <c r="F45" t="s">
         <v>87</v>
-      </c>
-      <c r="F45" t="s">
-        <v>88</v>
       </c>
       <c r="G45" t="n">
         <v>2</v>
@@ -3058,10 +3031,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" t="s">
         <v>89</v>
-      </c>
-      <c r="F46" t="s">
-        <v>90</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -3087,10 +3060,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47" t="s">
         <v>91</v>
-      </c>
-      <c r="F47" t="s">
-        <v>92</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -3116,10 +3089,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>92</v>
+      </c>
+      <c r="F48" t="s">
         <v>93</v>
-      </c>
-      <c r="F48" t="s">
-        <v>94</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -3145,10 +3118,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>94</v>
+      </c>
+      <c r="F49" t="s">
         <v>95</v>
-      </c>
-      <c r="F49" t="s">
-        <v>96</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -3174,10 +3147,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>96</v>
+      </c>
+      <c r="F50" t="s">
         <v>97</v>
-      </c>
-      <c r="F50" t="s">
-        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>2</v>
@@ -3203,10 +3176,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F51" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="G51" t="n">
         <v>2</v>
@@ -3232,10 +3205,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F52" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G52" t="n">
         <v>4</v>
@@ -3261,10 +3234,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F53" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G53" t="n">
         <v>3</v>
@@ -3290,10 +3263,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F54" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G54" t="n">
         <v>2</v>
@@ -3319,10 +3292,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F55" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G55" t="n">
         <v>2</v>
@@ -3348,10 +3321,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F56" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3377,10 +3350,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F57" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G57" t="n">
         <v>4</v>
@@ -3406,10 +3379,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F58" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G58" t="n">
         <v>2</v>
@@ -3435,10 +3408,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F59" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3464,10 +3437,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F60" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G60" t="n">
         <v>2</v>
@@ -3493,10 +3466,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F61" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3522,10 +3495,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F62" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G62" t="n">
         <v>5</v>
@@ -3551,10 +3524,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F63" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G63" t="n">
         <v>24</v>
@@ -3580,10 +3553,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F64" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3609,10 +3582,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F65" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3638,10 +3611,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F66" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G66" t="n">
         <v>2</v>
@@ -3667,10 +3640,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F67" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G67" t="n">
         <v>4</v>
@@ -3696,10 +3669,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F68" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G68" t="n">
         <v>2</v>
@@ -3725,10 +3698,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F69" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G69" t="n">
         <v>3</v>
@@ -3754,10 +3727,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F70" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G70" t="n">
         <v>4</v>
@@ -3783,10 +3756,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F71" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G71" t="n">
         <v>3</v>
@@ -3812,10 +3785,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F72" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G72" t="n">
         <v>3</v>
@@ -3841,10 +3814,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F73" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G73" t="n">
         <v>4</v>
@@ -3870,10 +3843,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F74" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G74" t="n">
         <v>4</v>
@@ -3899,10 +3872,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F75" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3928,10 +3901,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F76" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3957,10 +3930,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F77" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G77" t="n">
         <v>4</v>
@@ -3986,10 +3959,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F78" t="s">
-        <v>154</v>
+        <v>116</v>
       </c>
       <c r="G78" t="n">
         <v>2</v>
@@ -4015,10 +3988,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F79" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G79" t="n">
         <v>2</v>
@@ -4044,10 +4017,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F80" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G80" t="n">
         <v>2</v>
@@ -4073,10 +4046,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F81" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G81" t="n">
         <v>3</v>
@@ -4102,10 +4075,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F82" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G82" t="n">
         <v>2</v>
@@ -4131,10 +4104,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F83" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G83" t="n">
         <v>2</v>
@@ -4160,10 +4133,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F84" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G84" t="n">
         <v>2</v>
@@ -4189,10 +4162,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F85" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G85" t="n">
         <v>2</v>
@@ -4218,10 +4191,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F86" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G86" t="n">
         <v>2</v>
@@ -4247,10 +4220,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F87" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G87" t="n">
         <v>2</v>
@@ -4276,10 +4249,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F88" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G88" t="n">
         <v>2</v>
@@ -4305,10 +4278,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F89" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4334,10 +4307,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F90" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4363,10 +4336,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F91" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G91" t="n">
         <v>2</v>
@@ -4392,10 +4365,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F92" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4421,10 +4394,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F93" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4450,10 +4423,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F94" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4479,10 +4452,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F95" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4508,10 +4481,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F96" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G96" t="n">
         <v>6</v>
@@ -4537,10 +4510,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F97" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4566,10 +4539,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F98" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4595,10 +4568,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F99" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4624,10 +4597,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F100" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G100" t="n">
         <v>2</v>
@@ -4653,10 +4626,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F101" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4682,10 +4655,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F102" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G102" t="n">
         <v>5</v>
@@ -4711,10 +4684,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F103" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4740,10 +4713,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F104" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4769,10 +4742,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F105" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4798,10 +4771,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F106" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4827,10 +4800,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F107" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4856,10 +4829,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F108" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G108" t="n">
         <v>3</v>
@@ -4885,10 +4858,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F109" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4914,10 +4887,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F110" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4943,10 +4916,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F111" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G111" t="n">
         <v>4</v>
@@ -4972,10 +4945,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F112" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5001,10 +4974,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F113" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5030,10 +5003,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F114" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G114" t="n">
         <v>2</v>
@@ -5059,10 +5032,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F115" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5088,10 +5061,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F116" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G116" t="n">
         <v>2</v>
@@ -5117,10 +5090,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F117" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5146,10 +5119,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F118" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5175,10 +5148,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F119" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5204,10 +5177,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F120" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5233,10 +5206,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F121" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5262,10 +5235,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F122" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5291,10 +5264,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F123" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G123" t="n">
         <v>2</v>
@@ -5320,10 +5293,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F124" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G124" t="n">
         <v>2</v>
@@ -5349,10 +5322,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F125" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5378,10 +5351,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F126" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5407,10 +5380,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F127" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5436,10 +5409,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F128" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G128" t="n">
         <v>2</v>
@@ -5465,10 +5438,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F129" t="s">
-        <v>256</v>
+        <v>100</v>
       </c>
       <c r="G129" t="n">
         <v>4</v>
@@ -5494,10 +5467,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F130" t="s">
-        <v>258</v>
+        <v>74</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5523,10 +5496,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="F131" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5552,10 +5525,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F132" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5581,10 +5554,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F133" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5610,10 +5583,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F134" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G134" t="n">
         <v>2</v>
@@ -5668,10 +5641,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F136" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G136" t="n">
         <v>4</v>
@@ -5697,10 +5670,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F137" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="G137" t="n">
         <v>9</v>
@@ -5726,10 +5699,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F138" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G138" t="n">
         <v>6</v>
@@ -5755,10 +5728,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F139" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5784,10 +5757,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F140" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5813,10 +5786,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="F141" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5842,10 +5815,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F142" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5871,10 +5844,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F143" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5900,10 +5873,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F144" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5929,10 +5902,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="F145" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5958,10 +5931,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="F146" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5987,10 +5960,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F147" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6016,10 +5989,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F148" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="G148" t="n">
         <v>4</v>
@@ -6045,10 +6018,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F149" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G149" t="n">
         <v>5</v>
@@ -6074,10 +6047,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F150" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="G150" t="n">
         <v>3</v>
@@ -6103,10 +6076,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F151" t="s">
-        <v>296</v>
+        <v>159</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6132,10 +6105,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F152" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6161,10 +6134,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="F153" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6190,10 +6163,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F154" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6219,10 +6192,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="F155" t="s">
-        <v>302</v>
+        <v>257</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6248,10 +6221,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="F156" t="s">
-        <v>304</v>
+        <v>255</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6277,10 +6250,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="F157" t="s">
-        <v>306</v>
+        <v>259</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6306,10 +6279,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="F158" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6335,10 +6308,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="F159" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6364,10 +6337,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="F160" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6393,10 +6366,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="F161" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6422,10 +6395,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="F162" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6451,10 +6424,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F163" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6480,10 +6453,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="F164" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6509,10 +6482,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="F165" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6538,10 +6511,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="F166" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6567,10 +6540,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="F167" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="G167" t="n">
         <v>2</v>
@@ -6596,10 +6569,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="F168" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6625,10 +6598,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="F169" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6654,10 +6627,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="F170" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6683,10 +6656,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="F171" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6712,10 +6685,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="F172" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6741,10 +6714,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="F173" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6770,10 +6743,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="F174" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6799,10 +6772,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="F175" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6828,10 +6801,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="F176" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6857,10 +6830,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="F177" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6886,10 +6859,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="F178" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6915,10 +6888,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="F179" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6944,10 +6917,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="F180" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -6973,10 +6946,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="F181" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7002,10 +6975,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="F182" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7031,10 +7004,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="F183" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7060,10 +7033,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="F184" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7089,10 +7062,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="F185" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7118,10 +7091,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="F186" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7147,10 +7120,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="F187" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7176,10 +7149,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="F188" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7205,10 +7178,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="F189" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7234,10 +7207,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="F190" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7263,10 +7236,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="F191" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7292,10 +7265,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="F192" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7321,10 +7294,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="F193" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7350,10 +7323,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="F194" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7379,10 +7352,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="F195" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7408,10 +7381,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="F196" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7437,10 +7410,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="F197" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7466,10 +7439,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="F198" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7495,10 +7468,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="F199" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7524,10 +7497,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="F200" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7553,10 +7526,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="F201" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7582,10 +7555,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="F202" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7611,10 +7584,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="F203" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7640,10 +7613,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="F204" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7669,10 +7642,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="F205" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7698,10 +7671,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="F206" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7727,10 +7700,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="F207" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7756,10 +7729,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="F208" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -7785,10 +7758,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="F209" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -7814,10 +7787,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="F210" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -7843,10 +7816,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="F211" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -7872,10 +7845,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="F212" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -7901,10 +7874,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="F213" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -7930,10 +7903,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="F214" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -7959,10 +7932,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="F215" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -7988,10 +7961,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="F216" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8017,10 +7990,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="F217" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8046,10 +8019,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="F218" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8075,10 +8048,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="F219" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8104,10 +8077,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="F220" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8133,10 +8106,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="F221" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8162,10 +8135,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="F222" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8191,10 +8164,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="F223" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8220,10 +8193,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="F224" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8249,10 +8222,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="F225" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8278,10 +8251,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="F226" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8307,10 +8280,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="F227" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8336,10 +8309,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="F228" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8365,10 +8338,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="F229" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="G229" t="n">
         <v>3</v>
@@ -8394,10 +8367,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="F230" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8423,10 +8396,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="F231" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8452,10 +8425,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="F232" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>

--- a/xlsx/全球化_intext.xlsx
+++ b/xlsx/全球化_intext.xlsx
@@ -29,7 +29,7 @@
     <t>世界觀</t>
   </si>
   <si>
-    <t>政策_政策_外交政策_全球化</t>
+    <t>体育运动_体育运动_欧洲议会_全球化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A6%82%E5%BF%B5</t>
